--- a/public/import/templates/导入模板_物料分类.xlsx
+++ b/public/import/templates/导入模板_物料分类.xlsx
@@ -135,9 +135,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="list" sqref="D2:D65536" allowBlank="true" errorStyle="stop" showDropDown="false">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E2:E65536" allowBlank="true" errorStyle="stop" showDropDown="false">
+      <formula1>"不做任何处理,有小数进位取整"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F2:F65536" allowBlank="true" errorStyle="stop" showDropDown="false">
+      <formula1>"限制工单只能使用一个生产批次,同时一时间可使用多个生产批次半成品,限制工单同一时刻只能使用一个生产批次,工单同一时间可使用多个生产批次"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
